--- a/results_no_vaccine.xlsx
+++ b/results_no_vaccine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlair\Documents\dev\Personal\sophia\ai_hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia Laird\PycharmProjects\ai_hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC274AD8-A4A6-4C6B-8C4C-16B428CBAF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86D4C22-1AD7-4708-94CC-3747B6DB699D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-264" windowWidth="23256" windowHeight="12576" xr2:uid="{C54E5C3C-C5B2-4E09-AE16-8299E9F225AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{C54E5C3C-C5B2-4E09-AE16-8299E9F225AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Currently Sick" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4071,8 +4072,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>COVID-19 in Newmarket Model: Population Dynamics</a:t>
+              <a:t>NO</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> VACCINE MODEL</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4127,10 +4133,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-                <a:alpha val="73000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -5258,7 +5262,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7513,7 +7519,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:alpha val="57000"/>
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -12227,7 +12234,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A557B9F3-9B94-4EA6-8F82-B66BABFEDF9E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12238,7 +12245,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{15419CA3-2893-48D6-A2C3-CD74A30E9D5C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12249,7 +12256,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6936336" cy="5042019"/>
+    <xdr:ext cx="8660319" cy="6282447"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12282,7 +12289,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6936336" cy="5042019"/>
+    <xdr:ext cx="8661797" cy="6290469"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12617,26 +12624,26 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12689,7 +12696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -12742,7 +12749,7 @@
         <v>7.69230769230769E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44197</v>
       </c>
@@ -12795,7 +12802,7 @@
         <v>7.69230769230769E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44197</v>
       </c>
@@ -12848,7 +12855,7 @@
         <v>7.69230769230769E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44197</v>
       </c>
@@ -12901,7 +12908,7 @@
         <v>0.10256410256410201</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44197</v>
       </c>
@@ -12954,7 +12961,7 @@
         <v>0.10256410256410201</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44197</v>
       </c>
@@ -13007,7 +13014,7 @@
         <v>0.10256410256410201</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44197</v>
       </c>
@@ -13060,7 +13067,7 @@
         <v>0.128205128205128</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44197</v>
       </c>
@@ -13113,7 +13120,7 @@
         <v>0.128205128205128</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44197</v>
       </c>
@@ -13166,7 +13173,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44197</v>
       </c>
@@ -13219,7 +13226,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44197</v>
       </c>
@@ -13272,7 +13279,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44197</v>
       </c>
@@ -13325,7 +13332,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44197</v>
       </c>
@@ -13378,7 +13385,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44197</v>
       </c>
@@ -13431,7 +13438,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44197</v>
       </c>
@@ -13484,7 +13491,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44197</v>
       </c>
@@ -13537,7 +13544,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44197</v>
       </c>
@@ -13590,7 +13597,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44197</v>
       </c>
@@ -13643,7 +13650,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44197</v>
       </c>
@@ -13696,7 +13703,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44197</v>
       </c>
@@ -13749,7 +13756,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44197</v>
       </c>
@@ -13802,7 +13809,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44197</v>
       </c>
@@ -13855,7 +13862,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44197</v>
       </c>
@@ -13908,7 +13915,7 @@
         <v>0.15384615384615299</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44197</v>
       </c>
@@ -13961,7 +13968,7 @@
         <v>0.17948717948717899</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44197</v>
       </c>
@@ -14014,7 +14021,7 @@
         <v>0.20512820512820501</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44197</v>
       </c>
@@ -14067,7 +14074,7 @@
         <v>0.20512820512820501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44197</v>
       </c>
@@ -14120,7 +14127,7 @@
         <v>0.23076923076923</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44197</v>
       </c>
@@ -14173,7 +14180,7 @@
         <v>0.23076923076923</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44197</v>
       </c>
@@ -14226,7 +14233,7 @@
         <v>0.256410256410256</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44197</v>
       </c>
@@ -14279,7 +14286,7 @@
         <v>0.256410256410256</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44197</v>
       </c>
@@ -14332,7 +14339,7 @@
         <v>0.256410256410256</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44197</v>
       </c>
@@ -14385,7 +14392,7 @@
         <v>0.28205128205128199</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44197</v>
       </c>
@@ -14438,7 +14445,7 @@
         <v>0.28205128205128199</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44197</v>
       </c>
@@ -14491,7 +14498,7 @@
         <v>0.28205128205128199</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44197</v>
       </c>
@@ -14544,7 +14551,7 @@
         <v>0.30769230769230699</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44197</v>
       </c>
@@ -14597,7 +14604,7 @@
         <v>0.35897435897435898</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44197</v>
       </c>
@@ -14650,7 +14657,7 @@
         <v>0.35897435897435898</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44197</v>
       </c>
@@ -14703,7 +14710,7 @@
         <v>0.41025641025641002</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44197</v>
       </c>
@@ -14756,7 +14763,7 @@
         <v>0.41025641025641002</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44197</v>
       </c>
@@ -14809,7 +14816,7 @@
         <v>0.43589743589743501</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44197</v>
       </c>
@@ -14862,7 +14869,7 @@
         <v>0.43589743589743501</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44197</v>
       </c>
@@ -14915,7 +14922,7 @@
         <v>0.43589743589743501</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44197</v>
       </c>
@@ -14968,7 +14975,7 @@
         <v>0.43589743589743501</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44197</v>
       </c>
@@ -15021,7 +15028,7 @@
         <v>0.43589743589743501</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44197</v>
       </c>
@@ -15074,7 +15081,7 @@
         <v>0.46153846153846101</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44197</v>
       </c>
@@ -15127,7 +15134,7 @@
         <v>0.46153846153846101</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44197</v>
       </c>
@@ -15180,7 +15187,7 @@
         <v>0.512820512820512</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44197</v>
       </c>
@@ -15233,7 +15240,7 @@
         <v>0.512820512820512</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44197</v>
       </c>
@@ -15286,7 +15293,7 @@
         <v>0.53846153846153799</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44197</v>
       </c>
@@ -15339,7 +15346,7 @@
         <v>0.53846153846153799</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44197</v>
       </c>
@@ -15392,7 +15399,7 @@
         <v>0.53846153846153799</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44197</v>
       </c>
@@ -15445,7 +15452,7 @@
         <v>0.53846153846153799</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44197</v>
       </c>
@@ -15498,7 +15505,7 @@
         <v>0.53846153846153799</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44197</v>
       </c>
@@ -15551,7 +15558,7 @@
         <v>0.53846153846153799</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44197</v>
       </c>
@@ -15604,7 +15611,7 @@
         <v>0.56410256410256399</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44197</v>
       </c>
@@ -15657,7 +15664,7 @@
         <v>0.58974358974358898</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44197</v>
       </c>
@@ -15710,7 +15717,7 @@
         <v>0.58974358974358898</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44197</v>
       </c>
@@ -15763,7 +15770,7 @@
         <v>0.58974358974358898</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44197</v>
       </c>
@@ -15816,7 +15823,7 @@
         <v>0.58974358974358898</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44197</v>
       </c>
@@ -15869,7 +15876,7 @@
         <v>0.58974358974358898</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44197</v>
       </c>
@@ -15922,7 +15929,7 @@
         <v>0.61538461538461497</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44197</v>
       </c>
@@ -15975,7 +15982,7 @@
         <v>0.61538461538461497</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44197</v>
       </c>
@@ -16028,7 +16035,7 @@
         <v>0.64102564102564097</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44197</v>
       </c>
@@ -16081,7 +16088,7 @@
         <v>0.64102564102564097</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44197</v>
       </c>
@@ -16134,7 +16141,7 @@
         <v>0.64102564102564097</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44197</v>
       </c>
@@ -16187,7 +16194,7 @@
         <v>0.64102564102564097</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44197</v>
       </c>
@@ -16240,7 +16247,7 @@
         <v>0.64102564102564097</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44197</v>
       </c>
@@ -16293,7 +16300,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44197</v>
       </c>
@@ -16346,7 +16353,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44197</v>
       </c>
@@ -16399,7 +16406,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44197</v>
       </c>
@@ -16452,7 +16459,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44197</v>
       </c>
@@ -16505,7 +16512,7 @@
         <v>0.69230769230769196</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44197</v>
       </c>
@@ -16558,7 +16565,7 @@
         <v>0.69230769230769196</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44197</v>
       </c>
@@ -16611,7 +16618,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44197</v>
       </c>
@@ -16664,7 +16671,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44197</v>
       </c>
@@ -16717,7 +16724,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44197</v>
       </c>
@@ -16770,7 +16777,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44197</v>
       </c>
@@ -16823,7 +16830,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44197</v>
       </c>
@@ -16876,7 +16883,7 @@
         <v>0.71794871794871795</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44197</v>
       </c>
@@ -16929,7 +16936,7 @@
         <v>0.74358974358974295</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44197</v>
       </c>
@@ -16982,7 +16989,7 @@
         <v>0.74358974358974295</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44197</v>
       </c>
@@ -17035,7 +17042,7 @@
         <v>0.74358974358974295</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44197</v>
       </c>
@@ -17088,7 +17095,7 @@
         <v>0.74358974358974295</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44197</v>
       </c>
@@ -17141,7 +17148,7 @@
         <v>0.74358974358974295</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44197</v>
       </c>
@@ -17194,7 +17201,7 @@
         <v>0.74358974358974295</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44197</v>
       </c>
@@ -17247,7 +17254,7 @@
         <v>0.76923076923076905</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44197</v>
       </c>
@@ -17300,7 +17307,7 @@
         <v>0.79487179487179405</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44197</v>
       </c>
@@ -17353,7 +17360,7 @@
         <v>0.79487179487179405</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44197</v>
       </c>
@@ -17406,7 +17413,7 @@
         <v>0.79487179487179405</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44197</v>
       </c>
@@ -17459,7 +17466,7 @@
         <v>0.82051282051282004</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44197</v>
       </c>
@@ -17512,7 +17519,7 @@
         <v>0.82051282051282004</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44197</v>
       </c>
@@ -17565,7 +17572,7 @@
         <v>0.82051282051282004</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44197</v>
       </c>
@@ -17618,7 +17625,7 @@
         <v>0.82051282051282004</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44197</v>
       </c>
@@ -17671,7 +17678,7 @@
         <v>0.82051282051282004</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44197</v>
       </c>
@@ -17724,7 +17731,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44197</v>
       </c>
@@ -17777,7 +17784,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44197</v>
       </c>
@@ -17830,7 +17837,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44197</v>
       </c>
@@ -17883,7 +17890,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44197</v>
       </c>
@@ -17936,7 +17943,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44197</v>
       </c>
@@ -17989,7 +17996,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44197</v>
       </c>
@@ -18042,7 +18049,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44197</v>
       </c>
@@ -18095,7 +18102,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44197</v>
       </c>
@@ -18148,7 +18155,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44197</v>
       </c>
@@ -18201,7 +18208,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44197</v>
       </c>
@@ -18254,7 +18261,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44197</v>
       </c>
@@ -18307,7 +18314,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44197</v>
       </c>
@@ -18360,7 +18367,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44197</v>
       </c>
@@ -18413,7 +18420,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44197</v>
       </c>
@@ -18466,7 +18473,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44197</v>
       </c>
@@ -18519,7 +18526,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44197</v>
       </c>
@@ -18572,7 +18579,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44197</v>
       </c>
@@ -18625,7 +18632,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44197</v>
       </c>
@@ -18678,7 +18685,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44197</v>
       </c>
@@ -18731,7 +18738,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44197</v>
       </c>
@@ -18784,7 +18791,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44197</v>
       </c>
@@ -18837,7 +18844,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44197</v>
       </c>
@@ -18890,7 +18897,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44197</v>
       </c>
@@ -18943,7 +18950,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44197</v>
       </c>
@@ -18996,7 +19003,7 @@
         <v>0.87179487179487103</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44197</v>
       </c>
@@ -19049,7 +19056,7 @@
         <v>0.89743589743589702</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44197</v>
       </c>
@@ -19102,7 +19109,7 @@
         <v>0.89743589743589702</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44197</v>
       </c>
@@ -19155,7 +19162,7 @@
         <v>0.89743589743589702</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44197</v>
       </c>
@@ -19208,7 +19215,7 @@
         <v>0.89743589743589702</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44197</v>
       </c>
@@ -19261,7 +19268,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44197</v>
       </c>
@@ -19314,7 +19321,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44197</v>
       </c>
@@ -19367,7 +19374,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44197</v>
       </c>
@@ -19420,7 +19427,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44197</v>
       </c>
@@ -19473,7 +19480,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44197</v>
       </c>
@@ -19526,7 +19533,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44197</v>
       </c>
@@ -19579,7 +19586,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44197</v>
       </c>
@@ -19632,7 +19639,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44197</v>
       </c>
@@ -19685,7 +19692,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44197</v>
       </c>
@@ -19738,7 +19745,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44197</v>
       </c>
@@ -19791,7 +19798,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44197</v>
       </c>
@@ -19844,7 +19851,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44197</v>
       </c>
@@ -19897,7 +19904,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44197</v>
       </c>
@@ -19950,7 +19957,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44197</v>
       </c>
@@ -20003,7 +20010,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44197</v>
       </c>
@@ -20056,7 +20063,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44197</v>
       </c>
@@ -20109,7 +20116,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44197</v>
       </c>
@@ -20162,7 +20169,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44197</v>
       </c>
@@ -20215,7 +20222,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44197</v>
       </c>
@@ -20268,7 +20275,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44197</v>
       </c>
@@ -20321,7 +20328,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -20374,7 +20381,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44197</v>
       </c>
@@ -20427,7 +20434,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44197</v>
       </c>
@@ -20480,7 +20487,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44197</v>
       </c>
@@ -20533,7 +20540,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44197</v>
       </c>
@@ -20586,7 +20593,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44197</v>
       </c>
@@ -20639,7 +20646,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44197</v>
       </c>
@@ -20692,7 +20699,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44197</v>
       </c>
@@ -20745,7 +20752,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44197</v>
       </c>
@@ -20798,7 +20805,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44197</v>
       </c>
@@ -20851,7 +20858,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44197</v>
       </c>
@@ -20904,7 +20911,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44197</v>
       </c>
@@ -20957,7 +20964,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44197</v>
       </c>
@@ -21010,7 +21017,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44197</v>
       </c>
@@ -21063,7 +21070,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44197</v>
       </c>
@@ -21116,7 +21123,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44197</v>
       </c>
@@ -21169,7 +21176,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44197</v>
       </c>
@@ -21222,7 +21229,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44197</v>
       </c>
@@ -21275,7 +21282,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44197</v>
       </c>
@@ -21328,7 +21335,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44197</v>
       </c>
@@ -21381,7 +21388,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44197</v>
       </c>
@@ -21434,7 +21441,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44197</v>
       </c>
@@ -21487,7 +21494,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44197</v>
       </c>
@@ -21540,7 +21547,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44197</v>
       </c>
@@ -21593,7 +21600,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44197</v>
       </c>
@@ -21646,7 +21653,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44197</v>
       </c>
@@ -21699,7 +21706,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44197</v>
       </c>
@@ -21752,7 +21759,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44197</v>
       </c>
@@ -21805,7 +21812,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44197</v>
       </c>
@@ -21858,7 +21865,7 @@
         <v>0.94871794871794801</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44197</v>
       </c>
@@ -21911,7 +21918,7 @@
         <v>0.97435897435897401</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44197</v>
       </c>
@@ -21964,7 +21971,7 @@
         <v>0.97435897435897401</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44197</v>
       </c>
@@ -22017,7 +22024,7 @@
         <v>0.97435897435897401</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44197</v>
       </c>
@@ -22070,7 +22077,7 @@
         <v>0.97435897435897401</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44197</v>
       </c>
@@ -22123,7 +22130,7 @@
         <v>0.97435897435897401</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44197</v>
       </c>
@@ -22176,7 +22183,7 @@
         <v>0.97435897435897401</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44197</v>
       </c>
@@ -22229,747 +22236,747 @@
         <v>0.97435897435897401</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
     </row>
